--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2452,28 +2452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3059.091309520084</v>
+        <v>3352.611296985269</v>
       </c>
       <c r="AB2" t="n">
-        <v>4185.583687269367</v>
+        <v>4587.190683307194</v>
       </c>
       <c r="AC2" t="n">
-        <v>3786.11745465982</v>
+        <v>4149.395642654742</v>
       </c>
       <c r="AD2" t="n">
-        <v>3059091.309520084</v>
+        <v>3352611.296985269</v>
       </c>
       <c r="AE2" t="n">
-        <v>4185583.687269367</v>
+        <v>4587190.683307194</v>
       </c>
       <c r="AF2" t="n">
         <v>2.695931309534223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3786117.454659821</v>
+        <v>4149395.642654742</v>
       </c>
     </row>
     <row r="3">
@@ -2558,28 +2558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1089.130147739121</v>
+        <v>1245.712322645914</v>
       </c>
       <c r="AB3" t="n">
-        <v>1490.195917167654</v>
+        <v>1704.438556793148</v>
       </c>
       <c r="AC3" t="n">
-        <v>1347.973710336278</v>
+        <v>1541.769333127348</v>
       </c>
       <c r="AD3" t="n">
-        <v>1089130.147739121</v>
+        <v>1245712.322645914</v>
       </c>
       <c r="AE3" t="n">
-        <v>1490195.917167654</v>
+        <v>1704438.556793148</v>
       </c>
       <c r="AF3" t="n">
         <v>5.06640716965702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1347973.710336278</v>
+        <v>1541769.333127348</v>
       </c>
     </row>
     <row r="4">
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>845.9342970392947</v>
+        <v>982.8379441789056</v>
       </c>
       <c r="AB4" t="n">
-        <v>1157.444625196436</v>
+        <v>1344.762234975499</v>
       </c>
       <c r="AC4" t="n">
-        <v>1046.979734651422</v>
+        <v>1216.420014655087</v>
       </c>
       <c r="AD4" t="n">
-        <v>845934.2970392947</v>
+        <v>982837.9441789056</v>
       </c>
       <c r="AE4" t="n">
-        <v>1157444.625196436</v>
+        <v>1344762.234975499</v>
       </c>
       <c r="AF4" t="n">
         <v>5.928261415320609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.475</v>
       </c>
       <c r="AH4" t="n">
-        <v>1046979.734651422</v>
+        <v>1216420.014655087</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>728.8913711015501</v>
+        <v>856.0064969708126</v>
       </c>
       <c r="AB5" t="n">
-        <v>997.3013303589485</v>
+        <v>1171.225853496839</v>
       </c>
       <c r="AC5" t="n">
-        <v>902.1202911106978</v>
+        <v>1059.44570186491</v>
       </c>
       <c r="AD5" t="n">
-        <v>728891.3711015502</v>
+        <v>856006.4969708126</v>
       </c>
       <c r="AE5" t="n">
-        <v>997301.3303589484</v>
+        <v>1171225.853496839</v>
       </c>
       <c r="AF5" t="n">
         <v>6.423978280396344e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.43333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>902120.2911106979</v>
+        <v>1059445.70186491</v>
       </c>
     </row>
     <row r="6">
@@ -2876,28 +2876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>677.6037796504879</v>
+        <v>795.0660348946682</v>
       </c>
       <c r="AB6" t="n">
-        <v>927.1273850867603</v>
+        <v>1087.844424780817</v>
       </c>
       <c r="AC6" t="n">
-        <v>838.6436486855366</v>
+        <v>984.0220796789744</v>
       </c>
       <c r="AD6" t="n">
-        <v>677603.7796504879</v>
+        <v>795066.0348946681</v>
       </c>
       <c r="AE6" t="n">
-        <v>927127.3850867604</v>
+        <v>1087844.424780817</v>
       </c>
       <c r="AF6" t="n">
         <v>6.619100876224028e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.7125</v>
       </c>
       <c r="AH6" t="n">
-        <v>838643.6486855366</v>
+        <v>984022.0796789743</v>
       </c>
     </row>
     <row r="7">
@@ -2982,28 +2982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>677.7402037709139</v>
+        <v>795.202459015094</v>
       </c>
       <c r="AB7" t="n">
-        <v>927.3140465869343</v>
+        <v>1088.031086280991</v>
       </c>
       <c r="AC7" t="n">
-        <v>838.8124954741152</v>
+        <v>984.1909264675528</v>
       </c>
       <c r="AD7" t="n">
-        <v>677740.2037709139</v>
+        <v>795202.459015094</v>
       </c>
       <c r="AE7" t="n">
-        <v>927314.0465869342</v>
+        <v>1088031.086280991</v>
       </c>
       <c r="AF7" t="n">
         <v>6.631531466305713e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>838812.4954741151</v>
+        <v>984190.9264675528</v>
       </c>
     </row>
   </sheetData>
@@ -3279,28 +3279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1898.101215342009</v>
+        <v>2120.753845794495</v>
       </c>
       <c r="AB2" t="n">
-        <v>2597.065821146603</v>
+        <v>2901.708972872496</v>
       </c>
       <c r="AC2" t="n">
-        <v>2349.205504181144</v>
+        <v>2624.773941075667</v>
       </c>
       <c r="AD2" t="n">
-        <v>1898101.215342009</v>
+        <v>2120753.845794495</v>
       </c>
       <c r="AE2" t="n">
-        <v>2597065.821146603</v>
+        <v>2901708.972872496</v>
       </c>
       <c r="AF2" t="n">
         <v>3.771696682369357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.53333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2349205.504181144</v>
+        <v>2624773.941075667</v>
       </c>
     </row>
     <row r="3">
@@ -3385,28 +3385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>873.2037429485405</v>
+        <v>1008.66411124235</v>
       </c>
       <c r="AB3" t="n">
-        <v>1194.755884132514</v>
+        <v>1380.098736121781</v>
       </c>
       <c r="AC3" t="n">
-        <v>1080.730059401321</v>
+        <v>1248.384049727059</v>
       </c>
       <c r="AD3" t="n">
-        <v>873203.7429485405</v>
+        <v>1008664.11124235</v>
       </c>
       <c r="AE3" t="n">
-        <v>1194755.884132514</v>
+        <v>1380098.736121781</v>
       </c>
       <c r="AF3" t="n">
         <v>6.089284972716084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.20416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1080730.059401321</v>
+        <v>1248384.049727059</v>
       </c>
     </row>
     <row r="4">
@@ -3491,28 +3491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>684.7628629868952</v>
+        <v>810.5758365195201</v>
       </c>
       <c r="AB4" t="n">
-        <v>936.9227587440989</v>
+        <v>1109.065619608095</v>
       </c>
       <c r="AC4" t="n">
-        <v>847.5041656289121</v>
+        <v>1003.217953456071</v>
       </c>
       <c r="AD4" t="n">
-        <v>684762.8629868953</v>
+        <v>810575.83651952</v>
       </c>
       <c r="AE4" t="n">
-        <v>936922.7587440989</v>
+        <v>1109065.619608095</v>
       </c>
       <c r="AF4" t="n">
         <v>6.945345950672717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.725</v>
       </c>
       <c r="AH4" t="n">
-        <v>847504.1656289122</v>
+        <v>1003217.953456071</v>
       </c>
     </row>
     <row r="5">
@@ -3597,28 +3597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>651.3813790663258</v>
+        <v>767.4806490599187</v>
       </c>
       <c r="AB5" t="n">
-        <v>891.2487397568422</v>
+        <v>1050.10088290038</v>
       </c>
       <c r="AC5" t="n">
-        <v>806.1892109099109</v>
+        <v>949.8807284622125</v>
       </c>
       <c r="AD5" t="n">
-        <v>651381.3790663258</v>
+        <v>767480.6490599187</v>
       </c>
       <c r="AE5" t="n">
-        <v>891248.7397568421</v>
+        <v>1050100.88290038</v>
       </c>
       <c r="AF5" t="n">
         <v>7.145244638351565e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.03333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>806189.210909911</v>
+        <v>949880.7284622125</v>
       </c>
     </row>
   </sheetData>
@@ -3894,28 +3894,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>667.9886118536892</v>
+        <v>798.8980364021561</v>
       </c>
       <c r="AB2" t="n">
-        <v>913.9714883159148</v>
+        <v>1093.087538299337</v>
       </c>
       <c r="AC2" t="n">
-        <v>826.7433322380836</v>
+        <v>988.7647978020428</v>
       </c>
       <c r="AD2" t="n">
-        <v>667988.6118536892</v>
+        <v>798898.0364021561</v>
       </c>
       <c r="AE2" t="n">
-        <v>913971.4883159149</v>
+        <v>1093087.538299337</v>
       </c>
       <c r="AF2" t="n">
         <v>8.511978025606079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>826743.3322380836</v>
+        <v>988764.7978020428</v>
       </c>
     </row>
     <row r="3">
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>603.41086458022</v>
+        <v>734.3534435176106</v>
       </c>
       <c r="AB3" t="n">
-        <v>825.6133655272148</v>
+        <v>1004.774778808231</v>
       </c>
       <c r="AC3" t="n">
-        <v>746.817984676933</v>
+        <v>908.8804841290314</v>
       </c>
       <c r="AD3" t="n">
-        <v>603410.8645802201</v>
+        <v>734353.4435176105</v>
       </c>
       <c r="AE3" t="n">
-        <v>825613.3655272148</v>
+        <v>1004774.778808231</v>
       </c>
       <c r="AF3" t="n">
         <v>9.000398500311376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.63333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>746817.9846769329</v>
+        <v>908880.4841290314</v>
       </c>
     </row>
   </sheetData>
@@ -4297,28 +4297,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>980.0482492054201</v>
+        <v>1141.150456163076</v>
       </c>
       <c r="AB2" t="n">
-        <v>1340.94525124012</v>
+        <v>1561.372398127345</v>
       </c>
       <c r="AC2" t="n">
-        <v>1212.967318490243</v>
+        <v>1412.357207849995</v>
       </c>
       <c r="AD2" t="n">
-        <v>980048.2492054201</v>
+        <v>1141150.456163076</v>
       </c>
       <c r="AE2" t="n">
-        <v>1340945.25124012</v>
+        <v>1561372.398127345</v>
       </c>
       <c r="AF2" t="n">
         <v>6.268849914625393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.1125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1212967.318490243</v>
+        <v>1412357.207849995</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>611.0516109797956</v>
+        <v>734.223537423536</v>
       </c>
       <c r="AB3" t="n">
-        <v>836.0677718370549</v>
+        <v>1004.597035559265</v>
       </c>
       <c r="AC3" t="n">
-        <v>756.2746371214131</v>
+        <v>908.7197044462829</v>
       </c>
       <c r="AD3" t="n">
-        <v>611051.6109797956</v>
+        <v>734223.5374235359</v>
       </c>
       <c r="AE3" t="n">
-        <v>836067.7718370549</v>
+        <v>1004597.035559265</v>
       </c>
       <c r="AF3" t="n">
         <v>8.235743299584548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.20416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>756274.6371214131</v>
+        <v>908719.7044462829</v>
       </c>
     </row>
     <row r="4">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>613.3575524704753</v>
+        <v>736.5294789142157</v>
       </c>
       <c r="AB4" t="n">
-        <v>839.2228627155617</v>
+        <v>1007.752126437772</v>
       </c>
       <c r="AC4" t="n">
-        <v>759.1286105546733</v>
+        <v>911.5736778795431</v>
       </c>
       <c r="AD4" t="n">
-        <v>613357.5524704753</v>
+        <v>736529.4789142157</v>
       </c>
       <c r="AE4" t="n">
-        <v>839222.8627155618</v>
+        <v>1007752.126437772</v>
       </c>
       <c r="AF4" t="n">
         <v>8.234248699747954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>759128.6105546732</v>
+        <v>911573.677879543</v>
       </c>
     </row>
   </sheetData>
@@ -4806,28 +4806,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>613.6640367934085</v>
+        <v>752.3985192422853</v>
       </c>
       <c r="AB2" t="n">
-        <v>839.642208087333</v>
+        <v>1029.464847507286</v>
       </c>
       <c r="AC2" t="n">
-        <v>759.5079341927176</v>
+        <v>931.2141673241782</v>
       </c>
       <c r="AD2" t="n">
-        <v>613664.0367934086</v>
+        <v>752398.5192422853</v>
       </c>
       <c r="AE2" t="n">
-        <v>839642.208087333</v>
+        <v>1029464.847507286</v>
       </c>
       <c r="AF2" t="n">
         <v>9.61027863695006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.56666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>759507.9341927175</v>
+        <v>931214.1673241783</v>
       </c>
     </row>
     <row r="3">
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>617.0604162414718</v>
+        <v>755.7948986903486</v>
       </c>
       <c r="AB3" t="n">
-        <v>844.2892842858595</v>
+        <v>1034.111923705813</v>
       </c>
       <c r="AC3" t="n">
-        <v>763.7114999610691</v>
+        <v>935.4177330925297</v>
       </c>
       <c r="AD3" t="n">
-        <v>617060.4162414718</v>
+        <v>755794.8986903486</v>
       </c>
       <c r="AE3" t="n">
-        <v>844289.2842858594</v>
+        <v>1034111.923705813</v>
       </c>
       <c r="AF3" t="n">
         <v>9.608960806489046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.57083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>763711.4999610691</v>
+        <v>935417.7330925297</v>
       </c>
     </row>
   </sheetData>
@@ -5209,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2131.790877782667</v>
+        <v>2374.378444608073</v>
       </c>
       <c r="AB2" t="n">
-        <v>2916.810326958199</v>
+        <v>3248.72933809703</v>
       </c>
       <c r="AC2" t="n">
-        <v>2638.434043122314</v>
+        <v>2938.67516968919</v>
       </c>
       <c r="AD2" t="n">
-        <v>2131790.877782667</v>
+        <v>2374378.444608073</v>
       </c>
       <c r="AE2" t="n">
-        <v>2916810.326958199</v>
+        <v>3248729.33809703</v>
       </c>
       <c r="AF2" t="n">
         <v>3.471435252254964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>2638434.043122314</v>
+        <v>2938675.16968919</v>
       </c>
     </row>
     <row r="3">
@@ -5315,28 +5315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>921.3399147035071</v>
+        <v>1066.939679767128</v>
       </c>
       <c r="AB3" t="n">
-        <v>1260.617917945679</v>
+        <v>1459.833939914018</v>
       </c>
       <c r="AC3" t="n">
-        <v>1140.306313145303</v>
+        <v>1320.509437578427</v>
       </c>
       <c r="AD3" t="n">
-        <v>921339.9147035071</v>
+        <v>1066939.679767128</v>
       </c>
       <c r="AE3" t="n">
-        <v>1260617.917945679</v>
+        <v>1459833.939914018</v>
       </c>
       <c r="AF3" t="n">
         <v>5.79899820032581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="AH3" t="n">
-        <v>1140306.313145303</v>
+        <v>1320509.437578426</v>
       </c>
     </row>
     <row r="4">
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>730.7886958190438</v>
+        <v>856.9032836773065</v>
       </c>
       <c r="AB4" t="n">
-        <v>999.8973337414824</v>
+        <v>1172.452876632102</v>
       </c>
       <c r="AC4" t="n">
-        <v>904.4685355739164</v>
+        <v>1060.55561963428</v>
       </c>
       <c r="AD4" t="n">
-        <v>730788.6958190438</v>
+        <v>856903.2836773065</v>
       </c>
       <c r="AE4" t="n">
-        <v>999897.3337414823</v>
+        <v>1172452.876632102</v>
       </c>
       <c r="AF4" t="n">
         <v>6.654489195754651e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.18333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>904468.5355739164</v>
+        <v>1060555.61963428</v>
       </c>
     </row>
     <row r="5">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>649.849410275068</v>
+        <v>775.9971525222543</v>
       </c>
       <c r="AB5" t="n">
-        <v>889.1526324709502</v>
+        <v>1061.753538659163</v>
       </c>
       <c r="AC5" t="n">
-        <v>804.2931531614793</v>
+        <v>960.4212711099824</v>
       </c>
       <c r="AD5" t="n">
-        <v>649849.4102750679</v>
+        <v>775997.1525222543</v>
       </c>
       <c r="AE5" t="n">
-        <v>889152.6324709501</v>
+        <v>1061753.538659163</v>
       </c>
       <c r="AF5" t="n">
         <v>7.002396911338076e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.93333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>804293.1531614793</v>
+        <v>960421.2711099824</v>
       </c>
     </row>
     <row r="6">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>650.666292170261</v>
+        <v>776.8140344174473</v>
       </c>
       <c r="AB6" t="n">
-        <v>890.2703263182387</v>
+        <v>1062.871232506452</v>
       </c>
       <c r="AC6" t="n">
-        <v>805.3041758766763</v>
+        <v>961.4322938251794</v>
       </c>
       <c r="AD6" t="n">
-        <v>650666.292170261</v>
+        <v>776814.0344174473</v>
       </c>
       <c r="AE6" t="n">
-        <v>890270.3263182387</v>
+        <v>1062871.232506452</v>
       </c>
       <c r="AF6" t="n">
         <v>7.012452047626614e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AH6" t="n">
-        <v>805304.1758766762</v>
+        <v>961432.2938251793</v>
       </c>
     </row>
   </sheetData>
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>634.1518062278963</v>
+        <v>771.9272618671195</v>
       </c>
       <c r="AB2" t="n">
-        <v>867.6744780841955</v>
+        <v>1056.184934713904</v>
       </c>
       <c r="AC2" t="n">
-        <v>784.8648436846177</v>
+        <v>955.3841269096739</v>
       </c>
       <c r="AD2" t="n">
-        <v>634151.8062278962</v>
+        <v>771927.2618671195</v>
       </c>
       <c r="AE2" t="n">
-        <v>867674.4780841955</v>
+        <v>1056184.934713904</v>
       </c>
       <c r="AF2" t="n">
         <v>9.927819797610686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.25833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>784864.8436846177</v>
+        <v>955384.1269096739</v>
       </c>
     </row>
   </sheetData>
@@ -6227,28 +6227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1364.641478631014</v>
+        <v>1556.376188884094</v>
       </c>
       <c r="AB2" t="n">
-        <v>1867.162674796023</v>
+        <v>2129.502564102716</v>
       </c>
       <c r="AC2" t="n">
-        <v>1688.963289692764</v>
+        <v>1926.265828160373</v>
       </c>
       <c r="AD2" t="n">
-        <v>1364641.478631014</v>
+        <v>1556376.188884094</v>
       </c>
       <c r="AE2" t="n">
-        <v>1867162.674796023</v>
+        <v>2129502.564102716</v>
       </c>
       <c r="AF2" t="n">
         <v>4.823203212278178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.71666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1688963.289692763</v>
+        <v>1926265.828160373</v>
       </c>
     </row>
     <row r="3">
@@ -6333,28 +6333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>719.4945510541529</v>
+        <v>844.0770004331581</v>
       </c>
       <c r="AB3" t="n">
-        <v>984.4441866116571</v>
+        <v>1154.903390041777</v>
       </c>
       <c r="AC3" t="n">
-        <v>890.4902151175337</v>
+        <v>1044.681031413277</v>
       </c>
       <c r="AD3" t="n">
-        <v>719494.5510541529</v>
+        <v>844077.0004331581</v>
       </c>
       <c r="AE3" t="n">
-        <v>984444.186611657</v>
+        <v>1154903.390041777</v>
       </c>
       <c r="AF3" t="n">
         <v>7.109765448762405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.2625</v>
       </c>
       <c r="AH3" t="n">
-        <v>890490.2151175337</v>
+        <v>1044681.031413277</v>
       </c>
     </row>
     <row r="4">
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.6210071426416</v>
+        <v>750.1351256840852</v>
       </c>
       <c r="AB4" t="n">
-        <v>856.0022624234562</v>
+        <v>1026.36797258708</v>
       </c>
       <c r="AC4" t="n">
-        <v>774.3066079044814</v>
+        <v>928.4128537998654</v>
       </c>
       <c r="AD4" t="n">
-        <v>625621.0071426416</v>
+        <v>750135.1256840852</v>
       </c>
       <c r="AE4" t="n">
-        <v>856002.2624234562</v>
+        <v>1026367.97258708</v>
       </c>
       <c r="AF4" t="n">
         <v>7.633675925918435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.4625</v>
       </c>
       <c r="AH4" t="n">
-        <v>774306.6079044815</v>
+        <v>928412.8537998653</v>
       </c>
     </row>
     <row r="5">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>627.8110479542029</v>
+        <v>752.3251664956466</v>
       </c>
       <c r="AB5" t="n">
-        <v>858.9987728796159</v>
+        <v>1029.36448304324</v>
       </c>
       <c r="AC5" t="n">
-        <v>777.0171356083343</v>
+        <v>931.1233815037183</v>
       </c>
       <c r="AD5" t="n">
-        <v>627811.0479542029</v>
+        <v>752325.1664956466</v>
       </c>
       <c r="AE5" t="n">
-        <v>858998.7728796159</v>
+        <v>1029364.48304324</v>
       </c>
       <c r="AF5" t="n">
         <v>7.633227756134725e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.4625</v>
       </c>
       <c r="AH5" t="n">
-        <v>777017.1356083343</v>
+        <v>931123.3815037183</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1704.280961115754</v>
+        <v>1916.503465424728</v>
       </c>
       <c r="AB2" t="n">
-        <v>2331.872398568107</v>
+        <v>2622.244591559755</v>
       </c>
       <c r="AC2" t="n">
-        <v>2109.321769652232</v>
+        <v>2371.981248084691</v>
       </c>
       <c r="AD2" t="n">
-        <v>1704280.961115754</v>
+        <v>1916503.465424728</v>
       </c>
       <c r="AE2" t="n">
-        <v>2331872.398568107</v>
+        <v>2622244.591559756</v>
       </c>
       <c r="AF2" t="n">
         <v>4.09115070833712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.08333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2109321.769652233</v>
+        <v>2371981.248084691</v>
       </c>
     </row>
     <row r="3">
@@ -6948,28 +6948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>819.3277937564217</v>
+        <v>954.4430598244411</v>
       </c>
       <c r="AB3" t="n">
-        <v>1121.040433608727</v>
+        <v>1305.911101507833</v>
       </c>
       <c r="AC3" t="n">
-        <v>1014.04990801524</v>
+        <v>1181.276778837667</v>
       </c>
       <c r="AD3" t="n">
-        <v>819327.7937564217</v>
+        <v>954443.0598244411</v>
       </c>
       <c r="AE3" t="n">
-        <v>1121040.433608727</v>
+        <v>1305911.101507833</v>
       </c>
       <c r="AF3" t="n">
         <v>6.392026388478326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>1014049.90801524</v>
+        <v>1181276.778837667</v>
       </c>
     </row>
     <row r="4">
@@ -7054,28 +7054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>651.2552510665145</v>
+        <v>767.0010164599694</v>
       </c>
       <c r="AB4" t="n">
-        <v>891.0761658631255</v>
+        <v>1049.444628417232</v>
       </c>
       <c r="AC4" t="n">
-        <v>806.0331072264017</v>
+        <v>949.2871059858776</v>
       </c>
       <c r="AD4" t="n">
-        <v>651255.2510665144</v>
+        <v>767001.0164599693</v>
       </c>
       <c r="AE4" t="n">
-        <v>891076.1658631256</v>
+        <v>1049444.628417232</v>
       </c>
       <c r="AF4" t="n">
         <v>7.240207256042789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.34583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>806033.1072264017</v>
+        <v>949287.1059858776</v>
       </c>
     </row>
     <row r="5">
@@ -7160,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>643.477635207565</v>
+        <v>759.2234006010199</v>
       </c>
       <c r="AB5" t="n">
-        <v>880.4344887207158</v>
+        <v>1038.802951274822</v>
       </c>
       <c r="AC5" t="n">
-        <v>796.4070568147757</v>
+        <v>939.6610555742516</v>
       </c>
       <c r="AD5" t="n">
-        <v>643477.6352075649</v>
+        <v>759223.4006010199</v>
       </c>
       <c r="AE5" t="n">
-        <v>880434.4887207157</v>
+        <v>1038802.951274822</v>
       </c>
       <c r="AF5" t="n">
         <v>7.296047592460998e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.15833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>796407.0568147757</v>
+        <v>939661.0555742516</v>
       </c>
     </row>
   </sheetData>
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2692.893393784081</v>
+        <v>2966.117122488408</v>
       </c>
       <c r="AB2" t="n">
-        <v>3684.535543447494</v>
+        <v>4058.372302840974</v>
       </c>
       <c r="AC2" t="n">
-        <v>3332.88864245884</v>
+        <v>3671.046946218979</v>
       </c>
       <c r="AD2" t="n">
-        <v>2692893.393784081</v>
+        <v>2966117.122488408</v>
       </c>
       <c r="AE2" t="n">
-        <v>3684535.543447494</v>
+        <v>4058372.302840974</v>
       </c>
       <c r="AF2" t="n">
         <v>2.940725452551695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3332888.64245884</v>
+        <v>3671046.946218979</v>
       </c>
     </row>
     <row r="3">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1038.302170739584</v>
+        <v>1184.677375583447</v>
       </c>
       <c r="AB3" t="n">
-        <v>1420.6508366648</v>
+        <v>1620.927849550456</v>
       </c>
       <c r="AC3" t="n">
-        <v>1285.065914709483</v>
+        <v>1466.228770575885</v>
       </c>
       <c r="AD3" t="n">
-        <v>1038302.170739583</v>
+        <v>1184677.375583447</v>
       </c>
       <c r="AE3" t="n">
-        <v>1420650.8366648</v>
+        <v>1620927.849550456</v>
       </c>
       <c r="AF3" t="n">
         <v>5.293075078974961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.275</v>
       </c>
       <c r="AH3" t="n">
-        <v>1285065.914709483</v>
+        <v>1466228.770575885</v>
       </c>
     </row>
     <row r="4">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>811.0741146856263</v>
+        <v>937.9236495759474</v>
       </c>
       <c r="AB4" t="n">
-        <v>1109.747385777443</v>
+        <v>1283.308515620899</v>
       </c>
       <c r="AC4" t="n">
-        <v>1003.834652819081</v>
+        <v>1160.831352024854</v>
       </c>
       <c r="AD4" t="n">
-        <v>811074.1146856264</v>
+        <v>937923.6495759473</v>
       </c>
       <c r="AE4" t="n">
-        <v>1109747.385777443</v>
+        <v>1283308.515620899</v>
       </c>
       <c r="AF4" t="n">
         <v>6.15179613763168e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.04583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1003834.652819081</v>
+        <v>1160831.352024854</v>
       </c>
     </row>
     <row r="5">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>696.1453255228436</v>
+        <v>813.2320254363933</v>
       </c>
       <c r="AB5" t="n">
-        <v>952.4967461445897</v>
+        <v>1112.699934466946</v>
       </c>
       <c r="AC5" t="n">
-        <v>861.5917935301287</v>
+        <v>1006.505414405586</v>
       </c>
       <c r="AD5" t="n">
-        <v>696145.3255228435</v>
+        <v>813232.0254363933</v>
       </c>
       <c r="AE5" t="n">
-        <v>952496.7461445897</v>
+        <v>1112699.934466946</v>
       </c>
       <c r="AF5" t="n">
         <v>6.65710714124786e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.07083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>861591.7935301287</v>
+        <v>1006505.414405586</v>
       </c>
     </row>
     <row r="6">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>672.2511002702424</v>
+        <v>799.0996241307063</v>
       </c>
       <c r="AB6" t="n">
-        <v>919.8036130151601</v>
+        <v>1093.363359522962</v>
       </c>
       <c r="AC6" t="n">
-        <v>832.0188471414715</v>
+        <v>989.0142950352028</v>
       </c>
       <c r="AD6" t="n">
-        <v>672251.1002702424</v>
+        <v>799099.6241307063</v>
       </c>
       <c r="AE6" t="n">
-        <v>919803.6130151601</v>
+        <v>1093363.359522962</v>
       </c>
       <c r="AF6" t="n">
         <v>6.711714570862394e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>832018.8471414715</v>
+        <v>989014.2950352029</v>
       </c>
     </row>
     <row r="7">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>672.5129000782396</v>
+        <v>799.3614239387035</v>
       </c>
       <c r="AB7" t="n">
-        <v>920.1618190622543</v>
+        <v>1093.721565570056</v>
       </c>
       <c r="AC7" t="n">
-        <v>832.3428665061763</v>
+        <v>989.3383143999079</v>
       </c>
       <c r="AD7" t="n">
-        <v>672512.9000782396</v>
+        <v>799361.4239387035</v>
       </c>
       <c r="AE7" t="n">
-        <v>920161.8190622543</v>
+        <v>1093721.565570056</v>
       </c>
       <c r="AF7" t="n">
         <v>6.725558707947768e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.825</v>
       </c>
       <c r="AH7" t="n">
-        <v>832342.8665061763</v>
+        <v>989338.3143999078</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1090.101171835958</v>
+        <v>1261.422362222887</v>
       </c>
       <c r="AB2" t="n">
-        <v>1491.524515175506</v>
+        <v>1725.933726020393</v>
       </c>
       <c r="AC2" t="n">
-        <v>1349.17550881496</v>
+        <v>1561.213033572205</v>
       </c>
       <c r="AD2" t="n">
-        <v>1090101.171835958</v>
+        <v>1261422.362222887</v>
       </c>
       <c r="AE2" t="n">
-        <v>1491524.515175506</v>
+        <v>1725933.726020393</v>
       </c>
       <c r="AF2" t="n">
         <v>5.731347895144311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1349175.50881496</v>
+        <v>1561213.033572205</v>
       </c>
     </row>
     <row r="3">
@@ -8390,28 +8390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>627.8134343363721</v>
+        <v>751.4685949695657</v>
       </c>
       <c r="AB3" t="n">
-        <v>859.0020380329795</v>
+        <v>1028.192484091988</v>
       </c>
       <c r="AC3" t="n">
-        <v>777.0200891400436</v>
+        <v>930.0632364874624</v>
       </c>
       <c r="AD3" t="n">
-        <v>627813.4343363721</v>
+        <v>751468.5949695657</v>
       </c>
       <c r="AE3" t="n">
-        <v>859002.0380329795</v>
+        <v>1028192.484091988</v>
       </c>
       <c r="AF3" t="n">
         <v>7.946222614974233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.1375</v>
       </c>
       <c r="AH3" t="n">
-        <v>777020.0891400436</v>
+        <v>930063.2364874624</v>
       </c>
     </row>
     <row r="4">
@@ -8496,28 +8496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>610.3951321695788</v>
+        <v>734.1176126104768</v>
       </c>
       <c r="AB4" t="n">
-        <v>835.1695485671154</v>
+        <v>1004.452104556965</v>
       </c>
       <c r="AC4" t="n">
-        <v>755.4621390196925</v>
+        <v>908.5886054554302</v>
       </c>
       <c r="AD4" t="n">
-        <v>610395.1321695788</v>
+        <v>734117.6126104768</v>
       </c>
       <c r="AE4" t="n">
-        <v>835169.5485671153</v>
+        <v>1004452.104556965</v>
       </c>
       <c r="AF4" t="n">
         <v>8.024845873427069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.89166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>755462.1390196924</v>
+        <v>908588.6054554302</v>
       </c>
     </row>
   </sheetData>
@@ -8793,28 +8793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>761.1584000839725</v>
+        <v>911.5050031447599</v>
       </c>
       <c r="AB2" t="n">
-        <v>1041.45050293355</v>
+        <v>1247.161358065325</v>
       </c>
       <c r="AC2" t="n">
-        <v>942.0559286185328</v>
+        <v>1128.13402845353</v>
       </c>
       <c r="AD2" t="n">
-        <v>761158.4000839725</v>
+        <v>911505.0031447599</v>
       </c>
       <c r="AE2" t="n">
-        <v>1041450.50293355</v>
+        <v>1247161.358065325</v>
       </c>
       <c r="AF2" t="n">
         <v>7.623537581579513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.79583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>942055.9286185328</v>
+        <v>1128134.02845353</v>
       </c>
     </row>
     <row r="3">
@@ -8899,28 +8899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>607.7295821183806</v>
+        <v>729.8743961030848</v>
       </c>
       <c r="AB3" t="n">
-        <v>831.5224253912971</v>
+        <v>998.6463485340504</v>
       </c>
       <c r="AC3" t="n">
-        <v>752.1630921610047</v>
+        <v>903.3369426389131</v>
       </c>
       <c r="AD3" t="n">
-        <v>607729.5821183806</v>
+        <v>729874.3961030848</v>
       </c>
       <c r="AE3" t="n">
-        <v>831522.4253912971</v>
+        <v>998646.3485340504</v>
       </c>
       <c r="AF3" t="n">
         <v>8.732861784548002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.00833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>752163.0921610047</v>
+        <v>903336.9426389132</v>
       </c>
     </row>
   </sheetData>
@@ -15473,28 +15473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.7069312077562</v>
+        <v>739.9904750548884</v>
       </c>
       <c r="AB2" t="n">
-        <v>834.2279216498658</v>
+        <v>1012.487614045814</v>
       </c>
       <c r="AC2" t="n">
-        <v>754.6103796538434</v>
+        <v>915.8572171965722</v>
       </c>
       <c r="AD2" t="n">
-        <v>609706.9312077562</v>
+        <v>739990.4750548884</v>
       </c>
       <c r="AE2" t="n">
-        <v>834227.9216498658</v>
+        <v>1012487.614045814</v>
       </c>
       <c r="AF2" t="n">
         <v>9.25762528645664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.55416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>754610.3796538435</v>
+        <v>915857.2171965721</v>
       </c>
     </row>
     <row r="3">
@@ -15579,28 +15579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>609.5677097118627</v>
+        <v>739.7497683325098</v>
       </c>
       <c r="AB3" t="n">
-        <v>834.0374326571655</v>
+        <v>1012.158268489024</v>
       </c>
       <c r="AC3" t="n">
-        <v>754.4380706632536</v>
+        <v>915.559303917483</v>
       </c>
       <c r="AD3" t="n">
-        <v>609567.7097118627</v>
+        <v>739749.7683325098</v>
       </c>
       <c r="AE3" t="n">
-        <v>834037.4326571655</v>
+        <v>1012158.268489024</v>
       </c>
       <c r="AF3" t="n">
         <v>9.29068386108094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.45416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>754438.0706632535</v>
+        <v>915559.3039174831</v>
       </c>
     </row>
   </sheetData>
@@ -15876,28 +15876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>674.428461519459</v>
+        <v>829.3281389801859</v>
       </c>
       <c r="AB2" t="n">
-        <v>922.7827747347371</v>
+        <v>1134.723347127975</v>
       </c>
       <c r="AC2" t="n">
-        <v>834.7136818478117</v>
+        <v>1026.426943472301</v>
       </c>
       <c r="AD2" t="n">
-        <v>674428.461519459</v>
+        <v>829328.138980186</v>
       </c>
       <c r="AE2" t="n">
-        <v>922782.7747347371</v>
+        <v>1134723.347127975</v>
       </c>
       <c r="AF2" t="n">
         <v>1.013402075491665e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.29166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>834713.6818478117</v>
+        <v>1026426.943472301</v>
       </c>
     </row>
   </sheetData>
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1521.543999896788</v>
+        <v>1723.538973514569</v>
       </c>
       <c r="AB2" t="n">
-        <v>2081.843626442561</v>
+        <v>2358.222060735709</v>
       </c>
       <c r="AC2" t="n">
-        <v>1883.155392620764</v>
+        <v>2133.156657044543</v>
       </c>
       <c r="AD2" t="n">
-        <v>1521543.999896788</v>
+        <v>1723538.973514569</v>
       </c>
       <c r="AE2" t="n">
-        <v>2081843.626442561</v>
+        <v>2358222.060735709</v>
       </c>
       <c r="AF2" t="n">
         <v>4.438879031135728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.82916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1883155.392620764</v>
+        <v>2133156.657044543</v>
       </c>
     </row>
     <row r="3">
@@ -16279,28 +16279,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>764.320919199849</v>
+        <v>898.9728464721089</v>
       </c>
       <c r="AB3" t="n">
-        <v>1045.777601108389</v>
+        <v>1230.014308426072</v>
       </c>
       <c r="AC3" t="n">
-        <v>945.9700546166854</v>
+        <v>1112.623469165811</v>
       </c>
       <c r="AD3" t="n">
-        <v>764320.919199849</v>
+        <v>898972.846472109</v>
       </c>
       <c r="AE3" t="n">
-        <v>1045777.601108389</v>
+        <v>1230014.308426072</v>
       </c>
       <c r="AF3" t="n">
         <v>6.733786014797865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>945970.0546166854</v>
+        <v>1112623.469165812</v>
       </c>
     </row>
     <row r="4">
@@ -16385,28 +16385,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>634.6205572127961</v>
+        <v>749.9984597116982</v>
       </c>
       <c r="AB4" t="n">
-        <v>868.3158438615694</v>
+        <v>1026.180980174383</v>
       </c>
       <c r="AC4" t="n">
-        <v>785.4449984123614</v>
+        <v>928.2437076805905</v>
       </c>
       <c r="AD4" t="n">
-        <v>634620.5572127962</v>
+        <v>749998.4597116981</v>
       </c>
       <c r="AE4" t="n">
-        <v>868315.8438615694</v>
+        <v>1026180.980174383</v>
       </c>
       <c r="AF4" t="n">
         <v>7.45148816093936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.325</v>
       </c>
       <c r="AH4" t="n">
-        <v>785444.9984123615</v>
+        <v>928243.7076805906</v>
       </c>
     </row>
     <row r="5">
@@ -16491,28 +16491,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>635.4585449354979</v>
+        <v>750.8364474343997</v>
       </c>
       <c r="AB5" t="n">
-        <v>869.4624156331793</v>
+        <v>1027.327551945993</v>
       </c>
       <c r="AC5" t="n">
-        <v>786.4821429833123</v>
+        <v>929.2808522515413</v>
       </c>
       <c r="AD5" t="n">
-        <v>635458.5449354979</v>
+        <v>750836.4474343997</v>
       </c>
       <c r="AE5" t="n">
-        <v>869462.4156331792</v>
+        <v>1027327.551945993</v>
       </c>
       <c r="AF5" t="n">
         <v>7.459317638897268e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.29583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>786482.1429833124</v>
+        <v>929280.8522515413</v>
       </c>
     </row>
   </sheetData>
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2391.719313451125</v>
+        <v>2644.762376841599</v>
       </c>
       <c r="AB2" t="n">
-        <v>3272.455879873236</v>
+        <v>3618.680562676181</v>
       </c>
       <c r="AC2" t="n">
-        <v>2960.137283618685</v>
+        <v>3273.318768624297</v>
       </c>
       <c r="AD2" t="n">
-        <v>2391719.313451125</v>
+        <v>2644762.376841599</v>
       </c>
       <c r="AE2" t="n">
-        <v>3272455.879873237</v>
+        <v>3618680.562676181</v>
       </c>
       <c r="AF2" t="n">
         <v>3.198152945444052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2960137.283618685</v>
+        <v>3273318.768624297</v>
       </c>
     </row>
     <row r="3">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>980.0803421849799</v>
+        <v>1126.125274079379</v>
       </c>
       <c r="AB3" t="n">
-        <v>1340.989162270596</v>
+        <v>1540.81428113618</v>
       </c>
       <c r="AC3" t="n">
-        <v>1213.007038713599</v>
+        <v>1393.761128690968</v>
       </c>
       <c r="AD3" t="n">
-        <v>980080.3421849799</v>
+        <v>1126125.274079379</v>
       </c>
       <c r="AE3" t="n">
-        <v>1340989.162270596</v>
+        <v>1540814.28113618</v>
       </c>
       <c r="AF3" t="n">
         <v>5.532407626898179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>1213007.038713599</v>
+        <v>1393761.128690968</v>
       </c>
     </row>
     <row r="4">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>765.3074936683897</v>
+        <v>891.8797679768687</v>
       </c>
       <c r="AB4" t="n">
-        <v>1047.12747582084</v>
+        <v>1220.309245504347</v>
       </c>
       <c r="AC4" t="n">
-        <v>947.1910991811413</v>
+        <v>1103.844643828194</v>
       </c>
       <c r="AD4" t="n">
-        <v>765307.4936683897</v>
+        <v>891879.7679768687</v>
       </c>
       <c r="AE4" t="n">
-        <v>1047127.47582084</v>
+        <v>1220309.245504347</v>
       </c>
       <c r="AF4" t="n">
         <v>6.396305890888105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.60416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>947191.0991811414</v>
+        <v>1103844.643828194</v>
       </c>
     </row>
     <row r="5">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>662.0233324542314</v>
+        <v>788.5272759251487</v>
       </c>
       <c r="AB5" t="n">
-        <v>905.8095298720233</v>
+        <v>1078.897806289034</v>
       </c>
       <c r="AC5" t="n">
-        <v>819.3603396526967</v>
+        <v>975.9293138993893</v>
       </c>
       <c r="AD5" t="n">
-        <v>662023.3324542315</v>
+        <v>788527.2759251487</v>
       </c>
       <c r="AE5" t="n">
-        <v>905809.5298720233</v>
+        <v>1078897.806289034</v>
       </c>
       <c r="AF5" t="n">
         <v>6.854588591439631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.89166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>819360.3396526966</v>
+        <v>975929.3138993892</v>
       </c>
     </row>
     <row r="6">
@@ -17212,28 +17212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>658.5831259952513</v>
+        <v>785.0870694661686</v>
       </c>
       <c r="AB6" t="n">
-        <v>901.1024876236489</v>
+        <v>1074.19076404066</v>
       </c>
       <c r="AC6" t="n">
-        <v>815.1025309101318</v>
+        <v>971.6715051568249</v>
       </c>
       <c r="AD6" t="n">
-        <v>658583.1259952514</v>
+        <v>785087.0694661686</v>
       </c>
       <c r="AE6" t="n">
-        <v>901102.487623649</v>
+        <v>1074190.76404066</v>
       </c>
       <c r="AF6" t="n">
         <v>6.878956968312868e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.80833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>815102.5309101318</v>
+        <v>971671.5051568248</v>
       </c>
     </row>
   </sheetData>
@@ -17509,28 +17509,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>762.1123774275985</v>
+        <v>951.667103102517</v>
       </c>
       <c r="AB2" t="n">
-        <v>1042.75577682161</v>
+        <v>1302.11291505433</v>
       </c>
       <c r="AC2" t="n">
-        <v>943.236628998679</v>
+        <v>1177.841085968498</v>
       </c>
       <c r="AD2" t="n">
-        <v>762112.3774275985</v>
+        <v>951667.103102517</v>
       </c>
       <c r="AE2" t="n">
-        <v>1042755.77682161</v>
+        <v>1302112.91505433</v>
       </c>
       <c r="AF2" t="n">
         <v>1.002567884061668e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.62916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>943236.628998679</v>
+        <v>1177841.085968498</v>
       </c>
     </row>
   </sheetData>
@@ -17806,28 +17806,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>868.0552491557479</v>
+        <v>1019.043489697495</v>
       </c>
       <c r="AB2" t="n">
-        <v>1187.711487789699</v>
+        <v>1394.300259629971</v>
       </c>
       <c r="AC2" t="n">
-        <v>1074.357970358592</v>
+        <v>1261.230199763591</v>
       </c>
       <c r="AD2" t="n">
-        <v>868055.2491557479</v>
+        <v>1019043.489697495</v>
       </c>
       <c r="AE2" t="n">
-        <v>1187711.487789699</v>
+        <v>1394300.259629971</v>
       </c>
       <c r="AF2" t="n">
         <v>6.88773868394016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.44583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1074357.970358592</v>
+        <v>1261230.199763591</v>
       </c>
     </row>
     <row r="3">
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.992673507948</v>
+        <v>728.7530756946368</v>
       </c>
       <c r="AB3" t="n">
-        <v>829.1459104035033</v>
+        <v>997.112108482047</v>
       </c>
       <c r="AC3" t="n">
-        <v>750.0133884281863</v>
+        <v>901.9491283041532</v>
       </c>
       <c r="AD3" t="n">
-        <v>605992.6735079479</v>
+        <v>728753.0756946368</v>
       </c>
       <c r="AE3" t="n">
-        <v>829145.9104035033</v>
+        <v>997112.108482047</v>
       </c>
       <c r="AF3" t="n">
         <v>8.457103445209242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.60833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>750013.3884281863</v>
+        <v>901949.1283041532</v>
       </c>
     </row>
     <row r="4">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>607.2052757085274</v>
+        <v>729.9656778952162</v>
       </c>
       <c r="AB4" t="n">
-        <v>830.8050462305695</v>
+        <v>998.7712443091134</v>
       </c>
       <c r="AC4" t="n">
-        <v>751.5141786605292</v>
+        <v>903.4499185364962</v>
       </c>
       <c r="AD4" t="n">
-        <v>607205.2757085274</v>
+        <v>729965.6778952163</v>
       </c>
       <c r="AE4" t="n">
-        <v>830805.0462305695</v>
+        <v>998771.2443091134</v>
       </c>
       <c r="AF4" t="n">
         <v>8.470619007909804e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.57083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>751514.1786605292</v>
+        <v>903449.9185364961</v>
       </c>
     </row>
   </sheetData>
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1220.705663175218</v>
+        <v>1402.215508789759</v>
       </c>
       <c r="AB2" t="n">
-        <v>1670.223342089388</v>
+        <v>1918.573120508439</v>
       </c>
       <c r="AC2" t="n">
-        <v>1510.819570493559</v>
+        <v>1735.4671946214</v>
       </c>
       <c r="AD2" t="n">
-        <v>1220705.663175219</v>
+        <v>1402215.508789759</v>
       </c>
       <c r="AE2" t="n">
-        <v>1670223.342089388</v>
+        <v>1918573.120508439</v>
       </c>
       <c r="AF2" t="n">
         <v>5.2536405522394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.7125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1510819.570493559</v>
+        <v>1735467.1946214</v>
       </c>
     </row>
     <row r="3">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>664.2858955442123</v>
+        <v>788.5002188828008</v>
       </c>
       <c r="AB3" t="n">
-        <v>908.9052685089738</v>
+        <v>1078.860785650021</v>
       </c>
       <c r="AC3" t="n">
-        <v>822.1606253390329</v>
+        <v>975.8958264582049</v>
       </c>
       <c r="AD3" t="n">
-        <v>664285.8955442123</v>
+        <v>788500.2188828008</v>
       </c>
       <c r="AE3" t="n">
-        <v>908905.2685089738</v>
+        <v>1078860.785650021</v>
       </c>
       <c r="AF3" t="n">
         <v>7.537469846049902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.5875</v>
       </c>
       <c r="AH3" t="n">
-        <v>822160.6253390328</v>
+        <v>975895.8264582049</v>
       </c>
     </row>
     <row r="4">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>618.2590475900276</v>
+        <v>742.4392055098353</v>
       </c>
       <c r="AB4" t="n">
-        <v>845.9293045768366</v>
+        <v>1015.838075084636</v>
       </c>
       <c r="AC4" t="n">
-        <v>765.1949990172582</v>
+        <v>918.8879149362502</v>
       </c>
       <c r="AD4" t="n">
-        <v>618259.0475900277</v>
+        <v>742439.2055098354</v>
       </c>
       <c r="AE4" t="n">
-        <v>845929.3045768365</v>
+        <v>1015838.075084636</v>
       </c>
       <c r="AF4" t="n">
         <v>7.820749847633208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.6625</v>
       </c>
       <c r="AH4" t="n">
-        <v>765194.9990172582</v>
+        <v>918887.9149362502</v>
       </c>
     </row>
   </sheetData>
